--- a/excercises/excercises 2/ex010.IPR.xlsx
+++ b/excercises/excercises 2/ex010.IPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BC0317-6DE1-4F24-AC79-122DAC06B6A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623E8AA-1E47-4422-9A07-FCB05DBCBC72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="465" windowWidth="28335" windowHeight="17625" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPR" sheetId="110" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Параметры пласта</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Q ГЖС</t>
+  </si>
+  <si>
+    <t>Доля газа</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1744,7 @@
             <c:numRef>
               <c:f>IPR!$H$40:$H$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1965,7 +1968,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2687,25 +2690,25 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="22" max="32" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2717,17 +2720,17 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2860,7 +2863,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2876,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +2921,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -2940,12 +2943,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -2980,12 +2983,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2994,13 +2997,13 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="17" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;fluid:0;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -3020,17 +3023,17 @@
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3043,8 +3046,11 @@
       <c r="G39" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="14">
         <v>0</v>
       </c>
@@ -3060,12 +3066,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E40,fw_,D40,Tres_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="10">
         <f>[1]!MF_gas_fraction_d(D40,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="14">
         <f t="shared" ref="C41:C60" si="0">C40+qmax_/N_</f>
         <v>9.9187474546011547</v>
@@ -3082,12 +3088,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E41,fw_,D41,Tres_,PVT_str_)</f>
         <v>11.368418855343721</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="10">
         <f>[1]!MF_gas_fraction_d(D41,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="14">
         <f t="shared" si="0"/>
         <v>19.837494909202309</v>
@@ -3104,12 +3110,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E42,fw_,D42,Tres_,PVT_str_)</f>
         <v>22.753693311341493</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="10">
         <f>[1]!MF_gas_fraction_d(D42,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="14">
         <f t="shared" si="0"/>
         <v>29.756242363803466</v>
@@ -3126,12 +3132,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E43,fw_,D43,Tres_,PVT_str_)</f>
         <v>34.157814817970888</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="10">
         <f>[1]!MF_gas_fraction_d(D43,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="14">
         <f t="shared" si="0"/>
         <v>39.674989818404619</v>
@@ -3148,12 +3154,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E44,fw_,D44,Tres_,PVT_str_)</f>
         <v>45.583169097694871</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="10">
         <f>[1]!MF_gas_fraction_d(D44,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="14">
         <f t="shared" si="0"/>
         <v>49.593737273005772</v>
@@ -3170,12 +3176,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E45,fw_,D45,Tres_,PVT_str_)</f>
         <v>57.032634834885613</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="10">
         <f>[1]!MF_gas_fraction_d(D45,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="14">
         <f t="shared" si="0"/>
         <v>59.512484727606925</v>
@@ -3192,12 +3198,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E46,fw_,D46,Tres_,PVT_str_)</f>
         <v>68.509713569228055</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="10">
         <f>[1]!MF_gas_fraction_d(D46,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="14">
         <f t="shared" si="0"/>
         <v>69.431232182208078</v>
@@ -3214,12 +3220,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E47,fw_,D47,Tres_,PVT_str_)</f>
         <v>80.018702943340585</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="10">
         <f>[1]!MF_gas_fraction_d(D47,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="14">
         <f t="shared" si="0"/>
         <v>79.349979636809238</v>
@@ -3236,12 +3242,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E48,fw_,D48,Tres_,PVT_str_)</f>
         <v>91.564931179940118</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="10">
         <f>[1]!MF_gas_fraction_d(D48,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="14">
         <f t="shared" si="0"/>
         <v>89.268727091410398</v>
@@ -3258,12 +3264,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E49,fw_,D49,Tres_,PVT_str_)</f>
         <v>103.15507961351499</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="10">
         <f>[1]!MF_gas_fraction_d(D49,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="14">
         <f t="shared" si="0"/>
         <v>99.187474546011558</v>
@@ -3280,12 +3286,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E50,fw_,D50,Tres_,PVT_str_)</f>
         <v>114.79763442816692</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="10">
         <f>[1]!MF_gas_fraction_d(D50,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="14">
         <f t="shared" si="0"/>
         <v>109.10622200061272</v>
@@ -3302,12 +3308,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E51,fw_,D51,Tres_,PVT_str_)</f>
         <v>126.50353230307131</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="10">
         <f>[1]!MF_gas_fraction_d(D51,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="14">
         <f t="shared" si="0"/>
         <v>119.02496945521388</v>
@@ -3324,12 +3330,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E52,fw_,D52,Tres_,PVT_str_)</f>
         <v>138.287104544736</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="10">
         <f>[1]!MF_gas_fraction_d(D52,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="14">
         <f t="shared" si="0"/>
         <v>128.94371690981504</v>
@@ -3346,12 +3352,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E53,fw_,D53,Tres_,PVT_str_)</f>
         <v>150.16749411795843</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="10">
         <f>[1]!MF_gas_fraction_d(D53,Tres_,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="14">
         <f t="shared" si="0"/>
         <v>138.86246436441618</v>
@@ -3368,12 +3374,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E54,fw_,D54,Tres_,PVT_str_)</f>
         <v>169.43647302473826</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <f>[1]!MF_gas_fraction_d(D54,Tres_,fw_,PVT_str_)</f>
         <v>5.4969555207744616E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="14">
         <f t="shared" si="0"/>
         <v>148.78121181901733</v>
@@ -3390,12 +3396,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E55,fw_,D55,Tres_,PVT_str_)</f>
         <v>192.75304291394997</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <f>[1]!MF_gas_fraction_d(D55,Tres_,fw_,PVT_str_)</f>
         <v>0.1198770739868955</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="14">
         <f t="shared" si="0"/>
         <v>158.69995927361848</v>
@@ -3412,12 +3418,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E56,fw_,D56,Tres_,PVT_str_)</f>
         <v>222.094070855702</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="10">
         <f>[1]!MF_gas_fraction_d(D56,Tres_,fw_,PVT_str_)</f>
         <v>0.194852955458755</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="14">
         <f t="shared" si="0"/>
         <v>168.61870672821962</v>
@@ -3434,12 +3440,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E57,fw_,D57,Tres_,PVT_str_)</f>
         <v>262.23047457210657</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="10">
         <f>[1]!MF_gas_fraction_d(D57,Tres_,fw_,PVT_str_)</f>
         <v>0.28468458401074792</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="14">
         <f t="shared" si="0"/>
         <v>178.53745418282077</v>
@@ -3456,12 +3462,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E58,fw_,D58,Tres_,PVT_str_)</f>
         <v>325.78606278517208</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="10">
         <f>[1]!MF_gas_fraction_d(D58,Tres_,fw_,PVT_str_)</f>
         <v>0.39896468138768959</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="14">
         <f t="shared" si="0"/>
         <v>188.45620163742191</v>
@@ -3478,12 +3484,12 @@
         <f>[1]!MF_q_mix_rc_m3day(E59,fw_,D59,Tres_,PVT_str_)</f>
         <v>465.75856271997071</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="10">
         <f>[1]!MF_gas_fraction_d(D59,Tres_,fw_,PVT_str_)</f>
         <v>0.56366548959158924</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="14">
         <f t="shared" si="0"/>
         <v>198.37494909202306</v>
@@ -3497,6 +3503,7 @@
         <v>198.37494909202306</v>
       </c>
       <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
